--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value460.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value460.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.262032475071968</v>
+        <v>1.232523918151855</v>
       </c>
       <c r="B1">
-        <v>1.827996634484586</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>3.557211485163676</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>3.467879862534811</v>
+        <v>1.653842449188232</v>
       </c>
       <c r="E1">
-        <v>0.4741346176551423</v>
+        <v>1.091721177101135</v>
       </c>
     </row>
   </sheetData>
